--- a/data/league_data/germany/19/germany_passing.xlsx
+++ b/data/league_data/germany/19/germany_passing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/germany/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4CCA63-8DE9-CC4C-89DA-581E46C92814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6089E28-76BC-7C4D-A950-FAB05AB57983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1150,9 +1150,6 @@
     <t>gh GHA</t>
   </si>
   <si>
-    <t>Rafinha</t>
-  </si>
-  <si>
     <t>Robin Zentner</t>
   </si>
   <si>
@@ -1742,12 +1739,15 @@
   </si>
   <si>
     <t>Jozo Stanić</t>
+  </si>
+  <si>
+    <t>Rafinha de Souza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2608,14 +2608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD476"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
@@ -2646,7 +2646,7 @@
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -16906,7 +16906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -17090,7 +17090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -18286,7 +18286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -18654,7 +18654,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -19114,7 +19114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -19390,7 +19390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -20126,7 +20126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -20310,7 +20310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -20494,7 +20494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -20770,7 +20770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -21138,7 +21138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -21230,7 +21230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -21322,7 +21322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -21414,7 +21414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -21598,7 +21598,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -21782,7 +21782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -21966,7 +21966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -22426,7 +22426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -22518,7 +22518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -22702,7 +22702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -22794,7 +22794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -22978,7 +22978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -23070,7 +23070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -23438,7 +23438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -23530,7 +23530,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -23714,7 +23714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -23806,7 +23806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -23898,7 +23898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -24266,7 +24266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -24358,7 +24358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -24634,7 +24634,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -24818,7 +24818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -24910,7 +24910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -25002,7 +25002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -25094,7 +25094,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -25186,7 +25186,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -25278,7 +25278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -25370,7 +25370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -25554,7 +25554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -25922,7 +25922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -26198,7 +26198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -26290,7 +26290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -26382,7 +26382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -26474,7 +26474,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -26566,7 +26566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -26658,7 +26658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -26750,7 +26750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -26842,7 +26842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -26934,7 +26934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -27302,7 +27302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -27394,7 +27394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -27486,7 +27486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -27670,7 +27670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -27762,7 +27762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -27854,7 +27854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -27946,7 +27946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -28038,7 +28038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -28130,7 +28130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -28222,7 +28222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -28314,7 +28314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -28498,7 +28498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -28590,7 +28590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -28682,7 +28682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -28774,7 +28774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -28866,7 +28866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -28958,7 +28958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -29142,12 +29142,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>376</v>
+        <v>573</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>105</v>
@@ -29234,12 +29234,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>21</v>
@@ -29326,12 +29326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>251</v>
@@ -29418,15 +29418,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C292" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>22</v>
@@ -29510,12 +29510,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>124</v>
@@ -29602,12 +29602,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>21</v>
@@ -29694,12 +29694,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>105</v>
@@ -29786,12 +29786,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>100</v>
@@ -29878,12 +29878,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>21</v>
@@ -29970,12 +29970,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>21</v>
@@ -30062,12 +30062,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>21</v>
@@ -30154,15 +30154,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C300" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>34</v>
@@ -30246,12 +30246,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>21</v>
@@ -30338,12 +30338,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>21</v>
@@ -30430,12 +30430,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>100</v>
@@ -30522,12 +30522,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>21</v>
@@ -30614,12 +30614,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>45</v>
@@ -30706,12 +30706,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>21</v>
@@ -30798,12 +30798,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>21</v>
@@ -30890,15 +30890,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C308" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>81</v>
@@ -30982,12 +30982,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>61</v>
@@ -31074,12 +31074,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>113</v>
@@ -31166,12 +31166,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>21</v>
@@ -31258,12 +31258,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>124</v>
@@ -31350,12 +31350,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>136</v>
@@ -31442,12 +31442,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>21</v>
@@ -31534,15 +31534,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C315" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>51</v>
@@ -31626,12 +31626,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>266</v>
@@ -31718,12 +31718,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>21</v>
@@ -31810,12 +31810,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>21</v>
@@ -31902,15 +31902,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C319" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>51</v>
@@ -31994,15 +31994,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C320" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>22</v>
@@ -32086,12 +32086,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>148</v>
@@ -32178,12 +32178,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>134</v>
@@ -32270,12 +32270,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>105</v>
@@ -32362,12 +32362,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>61</v>
@@ -32454,12 +32454,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>94</v>
@@ -32546,12 +32546,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>21</v>
@@ -32638,12 +32638,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>100</v>
@@ -32730,12 +32730,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>148</v>
@@ -32822,15 +32822,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C329" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>22</v>
@@ -32914,12 +32914,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>105</v>
@@ -33006,12 +33006,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>21</v>
@@ -33098,12 +33098,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>72</v>
@@ -33190,12 +33190,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>50</v>
@@ -33282,15 +33282,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C334" s="4" t="s">
         <v>428</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>429</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>34</v>
@@ -33374,12 +33374,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>270</v>
@@ -33466,12 +33466,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>61</v>
@@ -33558,12 +33558,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>21</v>
@@ -33650,7 +33650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -33742,12 +33742,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>72</v>
@@ -33834,12 +33834,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>270</v>
@@ -33926,12 +33926,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>21</v>
@@ -34018,15 +34018,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>81</v>
@@ -34110,12 +34110,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>72</v>
@@ -34202,12 +34202,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>236</v>
@@ -34294,12 +34294,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>105</v>
@@ -34386,15 +34386,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C346" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>51</v>
@@ -34478,12 +34478,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>58</v>
@@ -34570,15 +34570,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>64</v>
@@ -34662,12 +34662,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>21</v>
@@ -34754,15 +34754,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C350" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>22</v>
@@ -34846,12 +34846,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>236</v>
@@ -34938,12 +34938,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>21</v>
@@ -35030,12 +35030,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>134</v>
@@ -35122,15 +35122,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>22</v>
@@ -35214,12 +35214,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>21</v>
@@ -35306,12 +35306,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>100</v>
@@ -35398,12 +35398,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>100</v>
@@ -35490,12 +35490,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>97</v>
@@ -35582,12 +35582,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>91</v>
@@ -35674,12 +35674,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>97</v>
@@ -35766,15 +35766,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C361" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>22</v>
@@ -35858,12 +35858,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>21</v>
@@ -35950,12 +35950,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>136</v>
@@ -36042,12 +36042,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>270</v>
@@ -36134,12 +36134,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>236</v>
@@ -36226,12 +36226,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>45</v>
@@ -36318,15 +36318,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>34</v>
@@ -36410,12 +36410,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>21</v>
@@ -36502,12 +36502,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>100</v>
@@ -36594,12 +36594,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>21</v>
@@ -36686,12 +36686,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>21</v>
@@ -36778,7 +36778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -36870,15 +36870,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>22</v>
@@ -36962,12 +36962,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>21</v>
@@ -37054,12 +37054,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>100</v>
@@ -37146,12 +37146,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>21</v>
@@ -37238,12 +37238,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>91</v>
@@ -37330,12 +37330,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>21</v>
@@ -37422,12 +37422,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>100</v>
@@ -37514,12 +37514,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>21</v>
@@ -37606,12 +37606,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>21</v>
@@ -37698,12 +37698,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>61</v>
@@ -37790,12 +37790,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>141</v>
@@ -37882,12 +37882,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>21</v>
@@ -37974,12 +37974,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>21</v>
@@ -38066,12 +38066,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>136</v>
@@ -38158,12 +38158,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>28</v>
@@ -38250,12 +38250,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>21</v>
@@ -38342,7 +38342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -38434,12 +38434,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>119</v>
@@ -38526,12 +38526,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>113</v>
@@ -38618,12 +38618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>70</v>
@@ -38710,12 +38710,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>21</v>
@@ -38802,12 +38802,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>21</v>
@@ -38894,12 +38894,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>21</v>
@@ -38986,12 +38986,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>113</v>
@@ -39078,15 +39078,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>81</v>
@@ -39170,12 +39170,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>105</v>
@@ -39262,12 +39262,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>45</v>
@@ -39354,12 +39354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>28</v>
@@ -39446,12 +39446,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>43</v>
@@ -39538,12 +39538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>100</v>
@@ -39630,12 +39630,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>105</v>
@@ -39722,12 +39722,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>61</v>
@@ -39814,12 +39814,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>375</v>
@@ -39906,12 +39906,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>21</v>
@@ -39996,15 +39996,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>51</v>
@@ -40088,15 +40088,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C408" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="D408" s="4" t="s">
         <v>81</v>
@@ -40180,12 +40180,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>21</v>
@@ -40272,12 +40272,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>28</v>
@@ -40362,12 +40362,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>21</v>
@@ -40454,12 +40454,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>139</v>
@@ -40546,15 +40546,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>510</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>348</v>
@@ -40638,12 +40638,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>58</v>
@@ -40730,12 +40730,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>211</v>
@@ -40822,12 +40822,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>61</v>
@@ -40914,15 +40914,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>25</v>
@@ -41006,12 +41006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>21</v>
@@ -41098,12 +41098,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>124</v>
@@ -41190,12 +41190,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>21</v>
@@ -41282,15 +41282,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C421" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="C421" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>34</v>
@@ -41374,12 +41374,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>141</v>
@@ -41466,12 +41466,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>91</v>
@@ -41558,12 +41558,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>21</v>
@@ -41650,12 +41650,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>61</v>
@@ -41742,12 +41742,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>21</v>
@@ -41834,7 +41834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -41926,12 +41926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>100</v>
@@ -42018,12 +42018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>359</v>
@@ -42110,12 +42110,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>21</v>
@@ -42202,12 +42202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>21</v>
@@ -42294,12 +42294,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>100</v>
@@ -42386,15 +42386,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C433" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="C433" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="D433" s="4" t="s">
         <v>81</v>
@@ -42478,12 +42478,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>21</v>
@@ -42570,12 +42570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>21</v>
@@ -42662,12 +42662,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>91</v>
@@ -42754,15 +42754,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D437" s="4" t="s">
         <v>51</v>
@@ -42846,12 +42846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>21</v>
@@ -42938,12 +42938,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>50</v>
@@ -43030,12 +43030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>21</v>
@@ -43122,12 +43122,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>136</v>
@@ -43214,12 +43214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>91</v>
@@ -43306,12 +43306,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>21</v>
@@ -43398,12 +43398,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>356</v>
@@ -43488,12 +43488,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>148</v>
@@ -43580,12 +43580,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>375</v>
@@ -43672,12 +43672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>148</v>
@@ -43764,12 +43764,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>21</v>
@@ -43856,12 +43856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>21</v>
@@ -43948,12 +43948,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>119</v>
@@ -44040,12 +44040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>21</v>
@@ -44128,12 +44128,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>21</v>
@@ -44218,12 +44218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>224</v>
@@ -44306,12 +44306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>100</v>
@@ -44396,12 +44396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>21</v>
@@ -44486,12 +44486,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>21</v>
@@ -44578,12 +44578,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>134</v>
@@ -44668,12 +44668,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>113</v>
@@ -44758,12 +44758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>139</v>
@@ -44850,12 +44850,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>113</v>
@@ -44940,12 +44940,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>21</v>
@@ -45030,12 +45030,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>375</v>
@@ -45120,12 +45120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>21</v>
@@ -45208,12 +45208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>50</v>
@@ -45298,12 +45298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>21</v>
@@ -45390,12 +45390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>21</v>
@@ -45480,12 +45480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>43</v>
@@ -45568,12 +45568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>251</v>
@@ -45660,12 +45660,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>21</v>
@@ -45744,12 +45744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>21</v>
@@ -45834,12 +45834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>113</v>
@@ -45922,12 +45922,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>21</v>
@@ -46012,12 +46012,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>21</v>
@@ -46096,15 +46096,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>51</v>
@@ -46184,12 +46184,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>148</v>
@@ -46274,7 +46274,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
